--- a/Tools/LIFEnet/NXr_Events scenario_006 Routine calls followed by Emergency Call..xlsx
+++ b/Tools/LIFEnet/NXr_Events scenario_006 Routine calls followed by Emergency Call..xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="236">
   <si>
     <t>PointId</t>
   </si>
@@ -1012,6 +1012,9 @@
   </si>
   <si>
     <t>same as ev 593 datapoint 4135</t>
+  </si>
+  <si>
+    <t>Output power over 85%for one or more phase</t>
   </si>
 </sst>
 </file>
@@ -12554,8 +12557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12563,7 +12566,7 @@
     <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="13" customWidth="1"/>
     <col min="7" max="7" width="8" style="13" bestFit="1" customWidth="1"/>
@@ -13135,7 +13138,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
       <c r="G18" s="15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
@@ -13167,7 +13170,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
       <c r="G19" s="15">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H19" s="16">
         <v>0</v>
@@ -13192,16 +13195,15 @@
       <c r="C20" s="10">
         <v>1885</v>
       </c>
-      <c r="D20" s="5" t="str">
-        <f>VLOOKUP(C20,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
+      <c r="D20" s="42" t="s">
+        <v>235</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="15">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H20" s="16">
         <v>0</v>
@@ -13226,16 +13228,15 @@
       <c r="C21" s="10">
         <v>1885</v>
       </c>
-      <c r="D21" s="5" t="str">
-        <f>VLOOKUP(C21,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
+      <c r="D21" s="42" t="s">
+        <v>235</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="15">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H21" s="16">
         <v>0</v>
@@ -13260,16 +13261,15 @@
       <c r="C22" s="10">
         <v>1885</v>
       </c>
-      <c r="D22" s="5" t="str">
-        <f>VLOOKUP(C22,[1]life_events!$A$1:$B$1365,2)</f>
-        <v>Main controller fault</v>
+      <c r="D22" s="42" t="s">
+        <v>235</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="15">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -13303,7 +13303,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="15">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H23" s="16">
         <v>0</v>
@@ -13337,7 +13337,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="15">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
